--- a/results/pvalue_SIDER_all_transporter_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_all_transporter_AUPR+AUROCperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.493</t>
+          <t>7.092</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.462</t>
+          <t>6.804</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.139</t>
+          <t>6.524</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.368</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24.759</t>
+          <t>24.758</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24.74</t>
+          <t>24.739</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17.634</t>
+          <t>19.439</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
